--- a/ExcelCucumber_M2.xlsx
+++ b/ExcelCucumber_M2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1859D9D-D887-445A-91F1-0C046B0F1625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5D29509-5563-40F0-9F0A-AE81215E7869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="5" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
@@ -274,16 +274,16 @@
     <t>testT4115</t>
   </si>
   <si>
-    <t>testM3</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
     <t>SexAtBirth</t>
   </si>
   <si>
     <t>Female</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>testTm3</t>
   </si>
 </sst>
 </file>
@@ -708,13 +708,13 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -727,7 +727,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:B5"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -803,7 +803,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -823,7 +823,7 @@
   <dimension ref="A1:Z4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1128,7 +1128,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1201,7 +1201,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1255,7 +1255,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1272,18 +1272,18 @@
         <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
